--- a/biology/Botanique/Incadendron_esseri/Incadendron_esseri.xlsx
+++ b/biology/Botanique/Incadendron_esseri/Incadendron_esseri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Incadendron esseri est une espèce de plantes à fleurs dicotylédones de la famille des Euphorbiaceae de la sous-famille des Euphorbioideae et de la tribu des Hippomaneae, originaire d'Amérique du Sud.
-Cette espèce, nouvellement décrite en 2017, est la seule du genre Incadendron (genre monotypique)[1].
-C'est un arbre pouvant atteindre 26 m de haut, avec un tronc de 60 cm de diamètre, qui se rencontre dans les Andes tropicales, au Pérou et en Équateur, à des altitudes comprises entre 1 800 et 2 400 mètres[2]. C'est une espèce classée à titre préliminaire comme « vulnérable » au regard des critères de l'UICN. On en connaît seulement dix stations réparties sur une surface inférieure à 2 000 km2[1].
+Cette espèce, nouvellement décrite en 2017, est la seule du genre Incadendron (genre monotypique).
+C'est un arbre pouvant atteindre 26 m de haut, avec un tronc de 60 cm de diamètre, qui se rencontre dans les Andes tropicales, au Pérou et en Équateur, à des altitudes comprises entre 1 800 et 2 400 mètres. C'est une espèce classée à titre préliminaire comme « vulnérable » au regard des critères de l'UICN. On en connaît seulement dix stations réparties sur une surface inférieure à 2 000 km2.
 Le nom générique, Incadendron, signifie « arbre des Incas ». L'épithète spécifique, esseri, est un hommage au botaniste allemand, Hans-Joachim Esser, spécialiste des Euphorbiaceae et en particulier de la tribu des Hippomaneae.
 </t>
         </is>
